--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E90C4D9-E2B6-47BE-906D-9395505CCBDD}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E9245E-325A-4843-BCDC-4103DB7B293B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
+    <sheet name="RTM_ALL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="191">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -186,6 +187,426 @@
   </si>
   <si>
     <t>Requirement Traceability Matrix</t>
+  </si>
+  <si>
+    <t>TS ID</t>
+  </si>
+  <si>
+    <t>TC ID</t>
+  </si>
+  <si>
+    <t>Login with valid credentials</t>
+  </si>
+  <si>
+    <t>Error for invalid credentials</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_03</t>
+  </si>
+  <si>
+    <t>Logout functionality</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_03</t>
+  </si>
+  <si>
+    <t>FR_URL_01</t>
+  </si>
+  <si>
+    <t>Launch app with valid URL</t>
+  </si>
+  <si>
+    <t>URL Launch</t>
+  </si>
+  <si>
+    <t>TS_URL_01</t>
+  </si>
+  <si>
+    <t>FR_URL_02</t>
+  </si>
+  <si>
+    <t>Browser compatibility</t>
+  </si>
+  <si>
+    <t>TS_URL_03</t>
+  </si>
+  <si>
+    <t>FR_URL_03</t>
+  </si>
+  <si>
+    <t>Invalid URL handling</t>
+  </si>
+  <si>
+    <t>TS_URL_02</t>
+  </si>
+  <si>
+    <t>FR_URL_04</t>
+  </si>
+  <si>
+    <t>Page load performance</t>
+  </si>
+  <si>
+    <t>TS_URL_04</t>
+  </si>
+  <si>
+    <t>FR_REG_01</t>
+  </si>
+  <si>
+    <t>Register with valid email &amp; password</t>
+  </si>
+  <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>TS_REG_01</t>
+  </si>
+  <si>
+    <t>FR_REG_02</t>
+  </si>
+  <si>
+    <t>Validate mandatory fields</t>
+  </si>
+  <si>
+    <t>TS_REG_02</t>
+  </si>
+  <si>
+    <t>FR_REG_03</t>
+  </si>
+  <si>
+    <t>Error for invalid email</t>
+  </si>
+  <si>
+    <t>TS_REG_03</t>
+  </si>
+  <si>
+    <t>FR_REG_04</t>
+  </si>
+  <si>
+    <t>Prevent duplicate email</t>
+  </si>
+  <si>
+    <t>TS_REG_04</t>
+  </si>
+  <si>
+    <t>FR_PDP_01</t>
+  </si>
+  <si>
+    <t>Product details displayed</t>
+  </si>
+  <si>
+    <t>Product Details Page</t>
+  </si>
+  <si>
+    <t>TS_PDP_01</t>
+  </si>
+  <si>
+    <t>FR_PDP_02</t>
+  </si>
+  <si>
+    <t>Selection of product options</t>
+  </si>
+  <si>
+    <t>TS_PDP_02</t>
+  </si>
+  <si>
+    <t>FR_PDP_03</t>
+  </si>
+  <si>
+    <t>Add to Cart from PDP</t>
+  </si>
+  <si>
+    <t>TS_PDP_03</t>
+  </si>
+  <si>
+    <t>FR_PDP_04</t>
+  </si>
+  <si>
+    <t>Display related/recommended products</t>
+  </si>
+  <si>
+    <t>TS_PDP_04</t>
+  </si>
+  <si>
+    <t>FR_PDP_05</t>
+  </si>
+  <si>
+    <t>TS_PDP_05</t>
+  </si>
+  <si>
+    <t>Search products with keywords</t>
+  </si>
+  <si>
+    <t>Product Search &amp; Browse</t>
+  </si>
+  <si>
+    <t>FR_SEARCH_02</t>
+  </si>
+  <si>
+    <t>Browse products by category</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_02</t>
+  </si>
+  <si>
+    <t>FR_SEARCH_03</t>
+  </si>
+  <si>
+    <t>Correct results displayed</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_03</t>
+  </si>
+  <si>
+    <t>FR_SEARCH_04</t>
+  </si>
+  <si>
+    <t>No-result scenario handled</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_04</t>
+  </si>
+  <si>
+    <t>FR_SEARCH_05</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_05</t>
+  </si>
+  <si>
+    <t>Add products to cart</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Update quantity in cart</t>
+  </si>
+  <si>
+    <t>FR_CART_03</t>
+  </si>
+  <si>
+    <t>Remove products from cart</t>
+  </si>
+  <si>
+    <t>TS_CART_03</t>
+  </si>
+  <si>
+    <t>FR_CART_04</t>
+  </si>
+  <si>
+    <t>Correct total price calculation</t>
+  </si>
+  <si>
+    <t>TS_CART_04</t>
+  </si>
+  <si>
+    <t>FR_CART_05</t>
+  </si>
+  <si>
+    <t>TS_CART_05</t>
+  </si>
+  <si>
+    <t>Proceed to checkout after login</t>
+  </si>
+  <si>
+    <t>Checkout &amp; Address</t>
+  </si>
+  <si>
+    <t>FR_CHECKOUT_02</t>
+  </si>
+  <si>
+    <t>Mandatory address fields validation</t>
+  </si>
+  <si>
+    <t>TS_CHECKOUT_02</t>
+  </si>
+  <si>
+    <t>FR_CHECKOUT_03</t>
+  </si>
+  <si>
+    <t>Select or add delivery address</t>
+  </si>
+  <si>
+    <t>TS_CHECKOUT_03</t>
+  </si>
+  <si>
+    <t>FR_CHECKOUT_04</t>
+  </si>
+  <si>
+    <t>Display order summary correctly</t>
+  </si>
+  <si>
+    <t>TS_CHECKOUT_04</t>
+  </si>
+  <si>
+    <t>FR_CHECKOUT_05</t>
+  </si>
+  <si>
+    <t>TS_CHECKOUT_05</t>
+  </si>
+  <si>
+    <t>Select payment method</t>
+  </si>
+  <si>
+    <t>FR_PAYMENT_02</t>
+  </si>
+  <si>
+    <t>Payment success/failure messages</t>
+  </si>
+  <si>
+    <t>TS_PAYMENT_02</t>
+  </si>
+  <si>
+    <t>FR_PAYMENT_03</t>
+  </si>
+  <si>
+    <t>Payment info security</t>
+  </si>
+  <si>
+    <t>TS_PAYMENT_03</t>
+  </si>
+  <si>
+    <t>FR_PAYMENT_04</t>
+  </si>
+  <si>
+    <t>TS_PAYMENT_04</t>
+  </si>
+  <si>
+    <t>Unique order ID generation</t>
+  </si>
+  <si>
+    <t>Order Confirmation</t>
+  </si>
+  <si>
+    <t>Order confirmation message</t>
+  </si>
+  <si>
+    <t>FR_ORDER_03</t>
+  </si>
+  <si>
+    <t>Order details in My Orders</t>
+  </si>
+  <si>
+    <t>TS_ORDER_03</t>
+  </si>
+  <si>
+    <t>TC_ORDER_03</t>
+  </si>
+  <si>
+    <t>FR_ORDER_04</t>
+  </si>
+  <si>
+    <t>Order tracking functionality</t>
+  </si>
+  <si>
+    <t>TS_ORDER_04</t>
+  </si>
+  <si>
+    <t>TC_ORDER_04</t>
+  </si>
+  <si>
+    <t>FR_ORDER_05</t>
+  </si>
+  <si>
+    <t>Order cancellation before shipment</t>
+  </si>
+  <si>
+    <t>TS_ORDER_05</t>
+  </si>
+  <si>
+    <t>TC_ORDER_05</t>
+  </si>
+  <si>
+    <t>FR_ORDER_06</t>
+  </si>
+  <si>
+    <t>TS_ORDER_06</t>
+  </si>
+  <si>
+    <t>TC_ORDER_06</t>
+  </si>
+  <si>
+    <t>NFR_01</t>
+  </si>
+  <si>
+    <t>Pages load within 3 seconds</t>
+  </si>
+  <si>
+    <t>Non-Functional</t>
+  </si>
+  <si>
+    <t>TS_NFR_01</t>
+  </si>
+  <si>
+    <t>TC_NFR_01</t>
+  </si>
+  <si>
+    <t>NFR_02</t>
+  </si>
+  <si>
+    <t>User-friendly UI</t>
+  </si>
+  <si>
+    <t>TS_NFR_02</t>
+  </si>
+  <si>
+    <t>TC_NFR_02</t>
+  </si>
+  <si>
+    <t>NFR_03</t>
+  </si>
+  <si>
+    <t>Meaningful error messages</t>
+  </si>
+  <si>
+    <t>TS_NFR_03</t>
+  </si>
+  <si>
+    <t>TC_NFR_03</t>
+  </si>
+  <si>
+    <t>NFR_04</t>
+  </si>
+  <si>
+    <t>Password masking &amp; secure data</t>
+  </si>
+  <si>
+    <t>TS_NFR_04</t>
+  </si>
+  <si>
+    <t>TC_NFR_04</t>
+  </si>
+  <si>
+    <t>NFR_05</t>
+  </si>
+  <si>
+    <t>Restrict unauthorized access</t>
+  </si>
+  <si>
+    <t>TS_NFR_05</t>
+  </si>
+  <si>
+    <t>TC_NFR_05</t>
+  </si>
+  <si>
+    <t>NFR_06</t>
+  </si>
+  <si>
+    <t>TS_NFR_06</t>
+  </si>
+  <si>
+    <t>TC_NFR_06</t>
+  </si>
+  <si>
+    <t>NFR_07</t>
+  </si>
+  <si>
+    <t>Responsive design</t>
+  </si>
+  <si>
+    <t>TS_NFR_07</t>
+  </si>
+  <si>
+    <t>TC_NFR_07</t>
   </si>
 </sst>
 </file>
@@ -541,12 +962,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
@@ -765,4 +1186,1025 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
+  <dimension ref="A3:G57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E9245E-325A-4843-BCDC-4103DB7B293B}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E72022-C6E0-49F7-B724-EA42356D6F45}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="180">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -489,9 +489,6 @@
     <t>TS_ORDER_03</t>
   </si>
   <si>
-    <t>TC_ORDER_03</t>
-  </si>
-  <si>
     <t>FR_ORDER_04</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>TS_ORDER_04</t>
   </si>
   <si>
-    <t>TC_ORDER_04</t>
-  </si>
-  <si>
     <t>FR_ORDER_05</t>
   </si>
   <si>
@@ -513,18 +507,12 @@
     <t>TS_ORDER_05</t>
   </si>
   <si>
-    <t>TC_ORDER_05</t>
-  </si>
-  <si>
     <t>FR_ORDER_06</t>
   </si>
   <si>
     <t>TS_ORDER_06</t>
   </si>
   <si>
-    <t>TC_ORDER_06</t>
-  </si>
-  <si>
     <t>NFR_01</t>
   </si>
   <si>
@@ -537,9 +525,6 @@
     <t>TS_NFR_01</t>
   </si>
   <si>
-    <t>TC_NFR_01</t>
-  </si>
-  <si>
     <t>NFR_02</t>
   </si>
   <si>
@@ -549,9 +534,6 @@
     <t>TS_NFR_02</t>
   </si>
   <si>
-    <t>TC_NFR_02</t>
-  </si>
-  <si>
     <t>NFR_03</t>
   </si>
   <si>
@@ -561,9 +543,6 @@
     <t>TS_NFR_03</t>
   </si>
   <si>
-    <t>TC_NFR_03</t>
-  </si>
-  <si>
     <t>NFR_04</t>
   </si>
   <si>
@@ -573,9 +552,6 @@
     <t>TS_NFR_04</t>
   </si>
   <si>
-    <t>TC_NFR_04</t>
-  </si>
-  <si>
     <t>NFR_05</t>
   </si>
   <si>
@@ -585,18 +561,12 @@
     <t>TS_NFR_05</t>
   </si>
   <si>
-    <t>TC_NFR_05</t>
-  </si>
-  <si>
     <t>NFR_06</t>
   </si>
   <si>
     <t>TS_NFR_06</t>
   </si>
   <si>
-    <t>TC_NFR_06</t>
-  </si>
-  <si>
     <t>NFR_07</t>
   </si>
   <si>
@@ -604,9 +574,6 @@
   </si>
   <si>
     <t>TS_NFR_07</t>
-  </si>
-  <si>
-    <t>TC_NFR_07</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
   <dimension ref="A3:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,9 +1804,6 @@
       <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
@@ -1857,9 +1821,6 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
@@ -1877,28 +1838,22 @@
       <c r="D41" t="s">
         <v>150</v>
       </c>
-      <c r="E41" t="s">
-        <v>151</v>
-      </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
         <v>152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
       </c>
       <c r="C42" t="s">
         <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -1906,19 +1861,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
         <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -1926,7 +1878,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -1935,10 +1887,7 @@
         <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -1957,9 +1906,6 @@
       <c r="D45" t="s">
         <v>44</v>
       </c>
-      <c r="E45" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
@@ -1977,9 +1923,6 @@
       <c r="D46" t="s">
         <v>48</v>
       </c>
-      <c r="E46" t="s">
-        <v>49</v>
-      </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
@@ -1997,28 +1940,22 @@
       <c r="D47" t="s">
         <v>150</v>
       </c>
-      <c r="E47" t="s">
-        <v>151</v>
-      </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" t="s">
-        <v>153</v>
       </c>
       <c r="C48" t="s">
         <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2026,19 +1963,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
         <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2046,7 +1980,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s">
         <v>63</v>
@@ -2055,10 +1989,7 @@
         <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2066,19 +1997,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2086,19 +2014,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
         <v>165</v>
-      </c>
-      <c r="D52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -2106,19 +2031,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -2126,19 +2048,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -2146,19 +2065,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -2166,19 +2082,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -2186,19 +2099,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
-      </c>
-      <c r="E57" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E72022-C6E0-49F7-B724-EA42356D6F45}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C72E2B6-A0A8-44D7-97DF-E5D1A554B28E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="180">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
   <dimension ref="A3:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,9 +1209,6 @@
       <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1226,9 +1223,6 @@
       <c r="D5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1243,9 +1237,6 @@
       <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1260,9 +1251,6 @@
       <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1277,9 +1265,6 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1294,9 +1279,6 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1311,9 +1293,6 @@
       <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1328,9 +1307,6 @@
       <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1345,9 +1321,6 @@
       <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1362,9 +1335,6 @@
       <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1379,9 +1349,6 @@
       <c r="D14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1396,9 +1363,6 @@
       <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1413,11 +1377,8 @@
       <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -1430,11 +1391,8 @@
       <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1447,11 +1405,8 @@
       <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -1464,11 +1419,8 @@
       <c r="D19" t="s">
         <v>98</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1481,11 +1433,8 @@
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1498,11 +1447,8 @@
       <c r="D21" t="s">
         <v>103</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -1515,11 +1461,8 @@
       <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -1532,11 +1475,8 @@
       <c r="D23" t="s">
         <v>109</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -1549,11 +1489,8 @@
       <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1566,11 +1503,8 @@
       <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1583,11 +1517,8 @@
       <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -1600,11 +1531,8 @@
       <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1617,11 +1545,8 @@
       <c r="D28" t="s">
         <v>120</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -1634,11 +1559,8 @@
       <c r="D29" t="s">
         <v>122</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1651,11 +1573,8 @@
       <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -1668,11 +1587,8 @@
       <c r="D31" t="s">
         <v>127</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -1685,11 +1601,8 @@
       <c r="D32" t="s">
         <v>130</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -1702,11 +1615,8 @@
       <c r="D33" t="s">
         <v>133</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -1719,11 +1629,8 @@
       <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1736,11 +1643,8 @@
       <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -1753,11 +1657,8 @@
       <c r="D36" t="s">
         <v>139</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -1770,11 +1671,8 @@
       <c r="D37" t="s">
         <v>142</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -1787,11 +1685,8 @@
       <c r="D38" t="s">
         <v>144</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1804,11 +1699,8 @@
       <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1821,11 +1713,8 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -1838,11 +1727,8 @@
       <c r="D41" t="s">
         <v>150</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -1855,11 +1741,8 @@
       <c r="D42" t="s">
         <v>153</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -1872,11 +1755,8 @@
       <c r="D43" t="s">
         <v>156</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -1889,11 +1769,8 @@
       <c r="D44" t="s">
         <v>158</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1906,11 +1783,8 @@
       <c r="D45" t="s">
         <v>44</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1923,11 +1797,8 @@
       <c r="D46" t="s">
         <v>48</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -1940,11 +1811,8 @@
       <c r="D47" t="s">
         <v>150</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>151</v>
       </c>
@@ -1957,11 +1825,8 @@
       <c r="D48" t="s">
         <v>153</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -1974,11 +1839,8 @@
       <c r="D49" t="s">
         <v>156</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -1991,11 +1853,8 @@
       <c r="D50" t="s">
         <v>158</v>
       </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -2008,11 +1867,8 @@
       <c r="D51" t="s">
         <v>162</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -2025,11 +1881,8 @@
       <c r="D52" t="s">
         <v>165</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>166</v>
       </c>
@@ -2042,11 +1895,8 @@
       <c r="D53" t="s">
         <v>168</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>169</v>
       </c>
@@ -2059,11 +1909,8 @@
       <c r="D54" t="s">
         <v>171</v>
       </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -2076,11 +1923,8 @@
       <c r="D55" t="s">
         <v>174</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -2093,11 +1937,8 @@
       <c r="D56" t="s">
         <v>176</v>
       </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -2109,9 +1950,6 @@
       </c>
       <c r="D57" t="s">
         <v>179</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C72E2B6-A0A8-44D7-97DF-E5D1A554B28E}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B76F66-2A3F-4A4E-9C54-52431E15CE25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   <dimension ref="A3:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5316D8-1C73-4278-B64D-DB4A2C9E2DAD}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{153927AF-ED9A-47EF-8F5B-1108443DB0F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="204">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -376,28 +376,16 @@
     <t>TS_SEARCH_05</t>
   </si>
   <si>
-    <t>Add products to cart</t>
-  </si>
-  <si>
     <t>Add to Cart</t>
   </si>
   <si>
-    <t>Update quantity in cart</t>
-  </si>
-  <si>
     <t>FR_CART_03</t>
   </si>
   <si>
-    <t>Remove products from cart</t>
-  </si>
-  <si>
     <t>TS_CART_03</t>
   </si>
   <si>
     <t>FR_CART_04</t>
-  </si>
-  <si>
-    <t>Correct total price calculation</t>
   </si>
   <si>
     <t>TS_CART_04</t>
@@ -646,6 +634,21 @@
   </si>
   <si>
     <t>TS_REG_07</t>
+  </si>
+  <si>
+    <t>FR_CART_06</t>
+  </si>
+  <si>
+    <t>User should be able to add product to cart</t>
+  </si>
+  <si>
+    <t>User should be able to update product quantity</t>
+  </si>
+  <si>
+    <t>Cart should show correct total price</t>
+  </si>
+  <si>
+    <t>TS_CART_06</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
-  <dimension ref="A3:G63"/>
+  <dimension ref="A3:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,10 +1313,10 @@
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,10 +1333,10 @@
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,7 +1356,7 @@
         <v>68</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1370,10 +1373,10 @@
         <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1476,86 +1479,86 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,10 +1706,10 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" t="s">
         <v>113</v>
-      </c>
-      <c r="C31" t="s">
-        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1717,10 +1720,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -1728,439 +1731,454 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
         <v>147</v>
-      </c>
-      <c r="D48" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
         <v>147</v>
-      </c>
-      <c r="D54" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
         <v>162</v>
-      </c>
-      <c r="D59" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,10 +2257,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -2250,10 +2268,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -2261,10 +2279,10 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -2272,10 +2290,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -2283,10 +2301,10 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -2294,10 +2312,10 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{153927AF-ED9A-47EF-8F5B-1108443DB0F7}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3360056-3CBB-4E21-844D-D89B6CA9428F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="209">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -422,9 +422,6 @@
   </si>
   <si>
     <t>FR_CHECKOUT_04</t>
-  </si>
-  <si>
-    <t>Display order summary correctly</t>
   </si>
   <si>
     <t>TS_CHECKOUT_04</t>
@@ -649,6 +646,24 @@
   </si>
   <si>
     <t>TS_CART_06</t>
+  </si>
+  <si>
+    <t>FR_CHECKOUT_06</t>
+  </si>
+  <si>
+    <t>FR_CHECKOUT_07</t>
+  </si>
+  <si>
+    <t>Select exiting delivery address</t>
+  </si>
+  <si>
+    <t>Add/remove address</t>
+  </si>
+  <si>
+    <t>Check delivery option</t>
+  </si>
+  <si>
+    <t>Check the payment option</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
-  <dimension ref="A3:G64"/>
+  <dimension ref="A3:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,10 +1328,10 @@
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1333,10 +1348,10 @@
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1356,7 +1371,7 @@
         <v>68</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1373,10 +1388,10 @@
         <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,86 +1494,86 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,7 +1721,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
         <v>113</v>
@@ -1720,7 +1735,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
         <v>113</v>
@@ -1734,7 +1749,7 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
@@ -1748,7 +1763,7 @@
         <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
         <v>113</v>
@@ -1762,7 +1777,7 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
@@ -1773,16 +1788,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1804,7 +1819,7 @@
         <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
         <v>121</v>
@@ -1818,7 +1833,7 @@
         <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
         <v>121</v>
@@ -1832,349 +1847,371 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
         <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="C52" t="s">
-        <v>143</v>
-      </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
         <v>158</v>
-      </c>
-      <c r="D60" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" t="s">
         <v>174</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2257,10 +2294,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -2268,10 +2305,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -2279,10 +2316,10 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -2290,10 +2327,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -2301,10 +2338,10 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -2312,10 +2349,10 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD4FF57-DE0A-4B0D-A229-704BFD0CF6A7}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88952B13-BD3B-4020-A01D-F1506F8AFD5C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="223">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -466,25 +466,16 @@
     <t>FR_ORDER_03</t>
   </si>
   <si>
-    <t>Order details in My Orders</t>
-  </si>
-  <si>
     <t>TS_ORDER_03</t>
   </si>
   <si>
     <t>FR_ORDER_04</t>
   </si>
   <si>
-    <t>Order tracking functionality</t>
-  </si>
-  <si>
     <t>TS_ORDER_04</t>
   </si>
   <si>
     <t>FR_ORDER_05</t>
-  </si>
-  <si>
-    <t>Order cancellation before shipment</t>
   </si>
   <si>
     <t>TS_ORDER_05</t>
@@ -697,6 +688,24 @@
   </si>
   <si>
     <t>Secure paymnet</t>
+  </si>
+  <si>
+    <t>FR_ORDER_07</t>
+  </si>
+  <si>
+    <t>Order details in display</t>
+  </si>
+  <si>
+    <t>Payment status should be shown</t>
+  </si>
+  <si>
+    <t>Order confirmation message should be displayed</t>
+  </si>
+  <si>
+    <t>Order details should be available in “My Orders”</t>
+  </si>
+  <si>
+    <t>Confirmation email/SMS should be sent</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
-  <dimension ref="A3:G69"/>
+  <dimension ref="A3:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,10 +1370,10 @@
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1381,10 +1390,10 @@
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1404,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1421,10 +1430,10 @@
         <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1527,86 +1536,86 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,7 +1777,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
         <v>113</v>
@@ -1782,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
@@ -1796,7 +1805,7 @@
         <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
         <v>113</v>
@@ -1810,7 +1819,7 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
@@ -1821,16 +1830,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,7 +1889,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
         <v>121</v>
@@ -1894,7 +1903,7 @@
         <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
         <v>121</v>
@@ -1905,30 +1914,30 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
         <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
         <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,7 +1959,7 @@
         <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -1964,7 +1973,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
@@ -1978,7 +1987,7 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
@@ -1989,10 +1998,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
@@ -2000,10 +2009,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
@@ -2011,10 +2020,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
@@ -2025,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
         <v>140</v>
@@ -2039,7 +2048,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
         <v>140</v>
@@ -2053,237 +2062,164 @@
         <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
         <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
         <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
         <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
         <v>140</v>
       </c>
-      <c r="D57" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2367,10 +2303,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -2378,10 +2314,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -2389,10 +2325,10 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -2400,10 +2336,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -2411,10 +2347,10 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -2422,10 +2358,10 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9865239-5809-4789-9EC7-861CCC179F71}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38AC752E-2CEE-4986-9491-56A9F856E511}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,9 +490,6 @@
     <t>NFR_01</t>
   </si>
   <si>
-    <t>Pages load within 3 seconds</t>
-  </si>
-  <si>
     <t>Non-Functional</t>
   </si>
   <si>
@@ -502,36 +499,24 @@
     <t>NFR_02</t>
   </si>
   <si>
-    <t>User-friendly UI</t>
-  </si>
-  <si>
     <t>TS_NFR_02</t>
   </si>
   <si>
     <t>NFR_03</t>
   </si>
   <si>
-    <t>Meaningful error messages</t>
-  </si>
-  <si>
     <t>TS_NFR_03</t>
   </si>
   <si>
     <t>NFR_04</t>
   </si>
   <si>
-    <t>Password masking &amp; secure data</t>
-  </si>
-  <si>
     <t>TS_NFR_04</t>
   </si>
   <si>
     <t>NFR_05</t>
   </si>
   <si>
-    <t>Restrict unauthorized access</t>
-  </si>
-  <si>
     <t>TS_NFR_05</t>
   </si>
   <si>
@@ -542,9 +527,6 @@
   </si>
   <si>
     <t>NFR_07</t>
-  </si>
-  <si>
-    <t>Responsive design</t>
   </si>
   <si>
     <t>TS_NFR_07</t>
@@ -772,6 +754,24 @@
   </si>
   <si>
     <t>TS_OT_06</t>
+  </si>
+  <si>
+    <t>Application performance</t>
+  </si>
+  <si>
+    <t>Application usability</t>
+  </si>
+  <si>
+    <t>Application security</t>
+  </si>
+  <si>
+    <t>Application reliability</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Data integrity</t>
   </si>
 </sst>
 </file>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,10 +1436,10 @@
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>68</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1496,10 +1496,10 @@
         <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1602,86 +1602,86 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
         <v>113</v>
@@ -1857,7 +1857,7 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
@@ -1871,7 +1871,7 @@
         <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
         <v>113</v>
@@ -1885,7 +1885,7 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
@@ -1896,16 +1896,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
         <v>121</v>
@@ -1969,7 +1969,7 @@
         <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
         <v>121</v>
@@ -1980,30 +1980,30 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C42" t="s">
         <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
         <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
         <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -2039,7 +2039,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
@@ -2053,7 +2053,7 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
@@ -2064,44 +2064,44 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
         <v>208</v>
-      </c>
-      <c r="B48" t="s">
-        <v>214</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
         <v>209</v>
-      </c>
-      <c r="B49" t="s">
-        <v>215</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
         <v>210</v>
-      </c>
-      <c r="B50" t="s">
-        <v>216</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
         <v>140</v>
@@ -2151,7 +2151,7 @@
         <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
         <v>140</v>
@@ -2165,7 +2165,7 @@
         <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
         <v>140</v>
@@ -2179,7 +2179,7 @@
         <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
@@ -2190,100 +2190,100 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
         <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
         <v>227</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" t="s">
         <v>233</v>
-      </c>
-      <c r="C58" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
         <v>228</v>
       </c>
-      <c r="B59" t="s">
-        <v>234</v>
-      </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
         <v>229</v>
       </c>
-      <c r="B60" t="s">
-        <v>235</v>
-      </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
         <v>230</v>
       </c>
-      <c r="B61" t="s">
-        <v>236</v>
-      </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" t="s">
         <v>231</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" t="s">
         <v>237</v>
-      </c>
-      <c r="C62" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" t="s">
         <v>232</v>
       </c>
-      <c r="B63" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>238</v>
-      </c>
-      <c r="D63" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,97 +2291,97 @@
         <v>150</v>
       </c>
       <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" t="s">
         <v>151</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>152</v>
-      </c>
-      <c r="D64" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" t="s">
         <v>154</v>
-      </c>
-      <c r="B65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38AC752E-2CEE-4986-9491-56A9F856E511}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E43ABD-719B-45BA-B624-72C28FC40BC1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="251">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -196,16 +196,7 @@
     <t>TC ID</t>
   </si>
   <si>
-    <t>Login with valid credentials</t>
-  </si>
-  <si>
-    <t>Error for invalid credentials</t>
-  </si>
-  <si>
     <t>FR_LOGIN_03</t>
-  </si>
-  <si>
-    <t>Logout functionality</t>
   </si>
   <si>
     <t>TS_LOGIN_03</t>
@@ -772,6 +763,33 @@
   </si>
   <si>
     <t>Data integrity</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_04</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_05</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_06</t>
+  </si>
+  <si>
+    <t>User should be able to login with valid credentials</t>
+  </si>
+  <si>
+    <t>System should validate mandatory login fields</t>
+  </si>
+  <si>
+    <t>System should display error for invalid credentials</t>
+  </si>
+  <si>
+    <t>Password field should be masked</t>
+  </si>
+  <si>
+    <t>System  should handle locked/blocked account</t>
+  </si>
+  <si>
+    <t>User should be able logout succesfully</t>
   </si>
 </sst>
 </file>
@@ -1383,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
-  <dimension ref="A3:G70"/>
+  <dimension ref="A3:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,82 +1442,82 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1507,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1521,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1532,125 +1550,116 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>181</v>
@@ -1658,13 +1667,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>182</v>
@@ -1672,13 +1681,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>183</v>
@@ -1686,702 +1695,744 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
         <v>101</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
         <v>121</v>
-      </c>
-      <c r="D41" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
         <v>202</v>
-      </c>
-      <c r="B48" t="s">
-        <v>208</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
         <v>203</v>
-      </c>
-      <c r="B49" t="s">
-        <v>209</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
         <v>204</v>
-      </c>
-      <c r="B50" t="s">
-        <v>210</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
         <v>140</v>
-      </c>
-      <c r="D56" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s">
         <v>224</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" t="s">
         <v>230</v>
-      </c>
-      <c r="C61" t="s">
-        <v>232</v>
-      </c>
-      <c r="D61" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" t="s">
         <v>225</v>
       </c>
-      <c r="B62" t="s">
-        <v>231</v>
-      </c>
       <c r="C62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" t="s">
         <v>232</v>
-      </c>
-      <c r="D62" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" t="s">
         <v>226</v>
       </c>
-      <c r="B63" t="s">
-        <v>231</v>
-      </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" t="s">
         <v>151</v>
-      </c>
-      <c r="D68" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2409,124 +2460,124 @@
   <sheetData>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E43ABD-719B-45BA-B624-72C28FC40BC1}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30520625-2675-448E-A36E-B6C2913F9BFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="278">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -286,9 +286,6 @@
     <t>FR_PDP_01</t>
   </si>
   <si>
-    <t>Product details displayed</t>
-  </si>
-  <si>
     <t>Product Details Page</t>
   </si>
   <si>
@@ -298,25 +295,16 @@
     <t>FR_PDP_02</t>
   </si>
   <si>
-    <t>Selection of product options</t>
-  </si>
-  <si>
     <t>TS_PDP_02</t>
   </si>
   <si>
     <t>FR_PDP_03</t>
   </si>
   <si>
-    <t>Add to Cart from PDP</t>
-  </si>
-  <si>
     <t>TS_PDP_03</t>
   </si>
   <si>
     <t>FR_PDP_04</t>
-  </si>
-  <si>
-    <t>Display related/recommended products</t>
   </si>
   <si>
     <t>TS_PDP_04</t>
@@ -777,19 +765,136 @@
     <t>User should be able to login with valid credentials</t>
   </si>
   <si>
-    <t>System should validate mandatory login fields</t>
-  </si>
-  <si>
     <t>System should display error for invalid credentials</t>
   </si>
   <si>
     <t>Password field should be masked</t>
   </si>
   <si>
-    <t>System  should handle locked/blocked account</t>
-  </si>
-  <si>
     <t>User should be able logout succesfully</t>
+  </si>
+  <si>
+    <t>User should not be able to login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Uset  should be able  clcik Login/Forgot password</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_04</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_LOGIN_02
+TS_LOGIN_03
+TS_LOGIN_04
+TS_LOGIN_05
+</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_02
+TC_LOGIN_03
+TC_LOGIN_04
+TC_LOGIN_05</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_06</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_07</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_10
+TS_LOGIN_11
+TS_LOGIN_12</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_08
+TS_LOGIN_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_LOGIN_06
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_LOGIN_07
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_LOGIN_08
+TC_LOGIN_09</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_10
+TC_LOGIN_11
+TC_LOGIN_12</t>
+  </si>
+  <si>
+    <t>TC_REG_01
+TC_REG_02</t>
+  </si>
+  <si>
+    <t>TC_REG_03
+TC_REG_04</t>
+  </si>
+  <si>
+    <t>TC_REG_05
+TC_REG_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_REG_07
+</t>
+  </si>
+  <si>
+    <t>TC_REG_08
+TC_REG_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_REG_10
+</t>
+  </si>
+  <si>
+    <t>TC_REG_11</t>
+  </si>
+  <si>
+    <t>TC_REG_12</t>
+  </si>
+  <si>
+    <t>TC_REG_13</t>
+  </si>
+  <si>
+    <t>TC_REG_14</t>
+  </si>
+  <si>
+    <t>FR_PDP_06</t>
+  </si>
+  <si>
+    <t>FR_PDP_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product loads and dispalys details </t>
+  </si>
+  <si>
+    <t>Product images should be viewable</t>
+  </si>
+  <si>
+    <t>Product availability should be shown</t>
+  </si>
+  <si>
+    <t>User should be able to select quantity</t>
+  </si>
+  <si>
+    <t>Add to cart button should be available</t>
+  </si>
+  <si>
+    <t>Product price should be dispayed</t>
+  </si>
+  <si>
+    <t>Product description and specifications should be visible</t>
   </si>
 </sst>
 </file>
@@ -849,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -859,10 +964,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
-  <dimension ref="A3:G73"/>
+  <dimension ref="A3:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1524,7 @@
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1430,7 +1541,7 @@
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1454,10 +1565,10 @@
         <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,10 +1585,10 @@
         <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,14 +1604,14 @@
       <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
@@ -1513,11 +1624,11 @@
       <c r="D7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>165</v>
+      <c r="E7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1533,69 +1644,96 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" t="s">
         <v>244</v>
-      </c>
-      <c r="B13" t="s">
-        <v>250</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1608,8 +1746,11 @@
       <c r="D14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1622,8 +1763,11 @@
       <c r="D15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1636,8 +1780,11 @@
       <c r="D16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1650,789 +1797,832 @@
       <c r="D17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
         <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
       <c r="B24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
         <v>110</v>
-      </c>
-      <c r="D39" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
         <v>199</v>
-      </c>
-      <c r="B51" t="s">
-        <v>205</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
         <v>200</v>
-      </c>
-      <c r="B52" t="s">
-        <v>206</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" t="s">
         <v>201</v>
-      </c>
-      <c r="B53" t="s">
-        <v>207</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
         <v>220</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" t="s">
         <v>226</v>
-      </c>
-      <c r="C63" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s">
         <v>221</v>
       </c>
-      <c r="B64" t="s">
-        <v>227</v>
-      </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" t="s">
         <v>222</v>
       </c>
-      <c r="B65" t="s">
-        <v>228</v>
-      </c>
       <c r="C65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" t="s">
         <v>229</v>
-      </c>
-      <c r="D65" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" t="s">
         <v>223</v>
       </c>
-      <c r="B66" t="s">
-        <v>228</v>
-      </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2444,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7495C7C6-8754-40B5-9487-A44731C32792}">
-  <dimension ref="C14:F23"/>
+  <dimension ref="D17:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F23"/>
+      <selection activeCell="D18" sqref="D18:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,126 +2648,24 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/RTM_All_Modules.xlsx
+++ b/RTM_All_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7D3DA4-3878-4A25-AA0A-20115702B527}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="8_{4EDD0A8C-986B-47C9-B440-4E61EB727780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6702CC82-2534-4F66-BC82-3C95C2971A91}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="332">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -1052,6 +1052,29 @@
   </si>
   <si>
     <t>TC_OT_06</t>
+  </si>
+  <si>
+    <t>TC_NFR_01 
+TC_NFR_02</t>
+  </si>
+  <si>
+    <t>TC_NFR_03</t>
+  </si>
+  <si>
+    <t>TC_NFR_04
+TC_NFR_05</t>
+  </si>
+  <si>
+    <t>TC_NFR_06</t>
+  </si>
+  <si>
+    <t>TC_NFR_07</t>
+  </si>
+  <si>
+    <t>TC_NFR_08</t>
+  </si>
+  <si>
+    <t>TC_NFR_09</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1674,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE34CF0-8890-43A6-9D70-4DB6854C32E2}">
   <dimension ref="A3:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63:E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1710,7 @@
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1701,7 +1727,7 @@
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1724,10 +1750,10 @@
       <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1744,10 +1770,10 @@
       <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1764,30 +1790,30 @@
       <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1804,24 +1830,24 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -1838,7 +1864,7 @@
       <c r="D10" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>251</v>
       </c>
     </row>
@@ -1855,7 +1881,7 @@
       <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>252</v>
       </c>
     </row>
@@ -1869,10 +1895,10 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1886,10 +1912,10 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>254</v>
       </c>
     </row>
@@ -1906,7 +1932,7 @@
       <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>255</v>
       </c>
     </row>
@@ -1923,7 +1949,7 @@
       <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>256</v>
       </c>
     </row>
@@ -1940,7 +1966,7 @@
       <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1957,7 +1983,7 @@
       <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1974,7 +2000,7 @@
       <c r="D18" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1991,7 +2017,7 @@
       <c r="D19" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2008,7 +2034,7 @@
       <c r="D20" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -2025,7 +2051,7 @@
       <c r="D21" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2042,7 +2068,7 @@
       <c r="D22" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2059,24 +2085,24 @@
       <c r="D23" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2093,7 +2119,7 @@
       <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2110,7 +2136,7 @@
       <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2127,7 +2153,7 @@
       <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2144,7 +2170,7 @@
       <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2161,7 +2187,7 @@
       <c r="D29" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2178,7 +2204,7 @@
       <c r="D30" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2195,7 +2221,7 @@
       <c r="D31" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2212,7 +2238,7 @@
       <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2229,7 +2255,7 @@
       <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2246,7 +2272,7 @@
       <c r="D34" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2263,7 +2289,7 @@
       <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2280,7 +2306,7 @@
       <c r="D36" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2297,7 +2323,7 @@
       <c r="D37" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2314,7 +2340,7 @@
       <c r="D38" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2331,7 +2357,7 @@
       <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2348,7 +2374,7 @@
       <c r="D40" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2365,7 +2391,7 @@
       <c r="D41" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2382,7 +2408,7 @@
       <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2399,7 +2425,7 @@
       <c r="D43" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2416,7 +2442,7 @@
       <c r="D44" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2433,7 +2459,7 @@
       <c r="D45" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2450,7 +2476,7 @@
       <c r="D46" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2467,7 +2493,7 @@
       <c r="D47" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2484,7 +2510,7 @@
       <c r="D48" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2501,7 +2527,7 @@
       <c r="D49" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>305</v>
       </c>
     </row>
@@ -2518,7 +2544,7 @@
       <c r="D50" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2535,7 +2561,7 @@
       <c r="D51" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2552,7 +2578,7 @@
       <c r="D52" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2569,7 +2595,7 @@
       <c r="D53" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -2586,7 +2612,7 @@
       <c r="D54" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2603,7 +2629,7 @@
       <c r="D55" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2620,7 +2646,7 @@
       <c r="D56" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="8" t="s">
         <v>312</v>
       </c>
     </row>
@@ -2637,7 +2663,7 @@
       <c r="D57" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>313</v>
       </c>
     </row>
@@ -2654,7 +2680,7 @@
       <c r="D58" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2671,7 +2697,7 @@
       <c r="D59" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="8" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2688,7 +2714,7 @@
       <c r="D60" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2705,7 +2731,7 @@
       <c r="D61" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="8" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2722,7 +2748,7 @@
       <c r="D62" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="8" t="s">
         <v>318</v>
       </c>
     </row>
@@ -2739,7 +2765,7 @@
       <c r="D63" t="s">
         <v>222</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="7" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2756,7 +2782,7 @@
       <c r="D64" t="s">
         <v>224</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="7" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2773,7 +2799,7 @@
       <c r="D65" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="7" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2790,7 +2816,7 @@
       <c r="D66" t="s">
         <v>223</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="7" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2807,7 +2833,7 @@
       <c r="D67" t="s">
         <v>226</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="7" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2824,11 +2850,11 @@
       <c r="D68" t="s">
         <v>227</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -2840,6 +2866,9 @@
       </c>
       <c r="D69" t="s">
         <v>141</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2855,8 +2884,11 @@
       <c r="D70" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -2868,6 +2900,9 @@
       </c>
       <c r="D71" t="s">
         <v>145</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2883,6 +2918,9 @@
       <c r="D72" t="s">
         <v>147</v>
       </c>
+      <c r="E72" s="7" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2897,6 +2935,9 @@
       <c r="D73" t="s">
         <v>149</v>
       </c>
+      <c r="E73" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2911,6 +2952,9 @@
       <c r="D74" t="s">
         <v>151</v>
       </c>
+      <c r="E74" s="7" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2924,6 +2968,9 @@
       </c>
       <c r="D75" t="s">
         <v>153</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
